--- a/arduino.ino/Pin_Configurations.xlsx
+++ b/arduino.ino/Pin_Configurations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daffodilvarsity-my.sharepoint.com/personal/mahmud15-4364_diu_edu_bd/Documents/Academic/8th_Semester/CSE413_Big Data and IoT Lab/Project/arduino.ino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daffodilvarsity-my.sharepoint.com/personal/mahmud15-4364_diu_edu_bd/Documents/Academic/8th_Semester/CSE413_Big Data and IoT Lab/SmartHomeAutomationProject/arduino.ino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048A5A95F79305ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20278910-5BF3-4977-90C6-3F6C3729BD94}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048A5A95F79305ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF91E79-1381-4F08-AF88-42192F4D0B44}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,6 +226,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,9 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,11 +532,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -550,13 +550,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -616,19 +616,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -671,7 +671,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -679,25 +679,25 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -705,19 +705,19 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
